--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="R17" s="2" t="inlineStr"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
           <t>A 2769-2023</t>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1630,6 +1630,68 @@
         <v>0</v>
       </c>
       <c r="R18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 41803-2023</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="R18" s="2" t="inlineStr"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
           <t>A 41803-2023</t>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1692,6 +1692,249 @@
         <v>0</v>
       </c>
       <c r="R19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 42337-2023</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 42344-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 42303-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 42339-2023</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1758,14 +1758,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 42344-2023</t>
+          <t>A 42303-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1777,13 +1777,8 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1815,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42303-2023</t>
+          <t>A 42344-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1839,8 +1834,13 @@
           <t>HAMMARÖ</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="R22" s="2" t="inlineStr"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
           <t>A 42339-2023</t>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1935,6 +1935,254 @@
         <v>0</v>
       </c>
       <c r="R23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 42957-2023</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 42951-2023</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 42960-2023</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 42955-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,31 +629,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/artfynd/A 24616-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/artfynd/A 24616-2022.xlsx", "A 24616-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/kartor/A 24616-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/kartor/A 24616-2022.png", "A 24616-2022")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/knärot/A 24616-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/knärot/A 24616-2022.png", "A 24616-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/klagomål/A 24616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/klagomål/A 24616-2022.docx", "A 24616-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/klagomålsmail/A 24616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/klagomålsmail/A 24616-2022.docx", "A 24616-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/tillsyn/A 24616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/tillsyn/A 24616-2022.docx", "A 24616-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/tillsynsmail/A 24616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/tillsynsmail/A 24616-2022.docx", "A 24616-2022")</f>
         <v/>
       </c>
     </row>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -723,31 +723,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/artfynd/A 24618-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/artfynd/A 24618-2022.xlsx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/kartor/A 24618-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/kartor/A 24618-2022.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/knärot/A 24618-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/knärot/A 24618-2022.png", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/klagomål/A 24618-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/klagomål/A 24618-2022.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/klagomålsmail/A 24618-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/klagomålsmail/A 24618-2022.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/tillsyn/A 24618-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/tillsyn/A 24618-2022.docx", "A 24618-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/tillsynsmail/A 24618-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAMMARO/tillsynsmail/A 24618-2022.docx", "A 24618-2022")</f>
         <v/>
       </c>
     </row>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="R26" s="2" t="inlineStr"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
           <t>A 42955-2023</t>
@@ -2132,7 +2132,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2183,6 +2183,130 @@
         <v>0</v>
       </c>
       <c r="R27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 47008-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 46982-2023</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>HAMMARÖ</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45201</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45201</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45201</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45201</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Översikt HAMMARÖ.xlsx
+++ b/Översikt HAMMARÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>43409</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43966</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44160</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44161</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44228</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44316</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44645</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44944</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45176</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45180</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45180</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45180</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45182</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45201</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45201</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
